--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/34_Giresun_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/34_Giresun_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF263180-7F8E-49ED-8260-F453BEAC6D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE0BEE7C-D82E-4F03-BC2F-7312DCB480BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{5A6AECD6-0F1F-4BB9-B722-E0EACCFC1647}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{9F209DEC-6DD5-4A62-984D-288725B3807A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{966042AC-EFBB-42CD-95F5-265B64AD6E7D}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BA0C3145-5040-4B7C-A103-85BE4EF05772}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{770D6C66-D110-495D-A556-0A068E3E986E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{54B51E04-5F5A-4FE3-8BE8-4EF6B62C955B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{D02BC72C-D13D-4658-A700-E7155B424388}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{7AB090AD-832F-4802-AAA4-A73E71785EF9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{7E32EBAD-DB7D-4280-A619-6EB675FCC5DD}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{48D4F362-4126-4838-970D-E3EF81556B1F}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A852C81D-06BD-4B42-929C-530DEF732EFA}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{49F2FFBC-64A7-4C63-AE90-2808C5B6DC1E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{9E5B1149-2F12-4947-8F53-A499BF324AD0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{D929231E-D2B1-4248-80D5-CACE7B3DCEAC}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{A27085C0-0FF6-4680-B9FA-9A7B6AD51ED1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{0ABED3A9-91B2-4AB3-AC72-AE4AB729D8CC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C1D6DE-30F1-46EB-BCE0-3047411A123E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66DF60F-5D83-4B7D-A413-147DE745E2E3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2579,7 +2579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B1F15E-314B-4385-86F3-A587A37CF4F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17932571-375E-495D-9955-B4B782CD2C03}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3834,7 +3834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70B1983-4E1B-4D0C-9E3B-0D34B512228C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020ED063-7DF2-430D-8CB9-BE99928B6372}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5071,7 +5071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B6225E-9FE3-45F4-A0CA-483E3CC2E6A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A3A61E-F759-461B-984D-C17FA0A9AEE7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6292,7 +6292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6FC344-36FB-4175-AD1E-379239A54949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8542B0-3D29-4BF5-A7F6-46315F39717D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7579,7 +7579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D0733-9AC8-4827-B6ED-E65B6918C83F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25152587-4BE4-4547-B075-E2DE1415B71C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8866,7 +8866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4DE44F-01CA-45C6-812A-894C838550BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7C2834-0735-42DB-A34D-D7B39428F87A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10153,7 +10153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DB8CAC-FF37-4473-8894-E59A29FFCF10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E796EF-9D23-4A14-9496-A1122C6F2E01}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11440,7 +11440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F99C16-20D5-40EF-9AB6-4C018AF80048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9499281-E68C-4FBE-92F4-B1E1C80984B8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12727,7 +12727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2F9600-AE21-406B-8CBF-5A1659960284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34191732-F836-41F9-AAAB-B7FCA6D7F3D9}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13998,7 +13998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AE72E0-D04A-48C7-80D3-624169D5AB7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90BD601-D549-4C29-826C-3E32A7FC890E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15273,7 +15273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AC510F-AFBC-4F86-BDF5-5A4EDB27B4DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF93DEF8-92E0-4A2C-A849-080C405524B1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
